--- a/chapterElevenTimeSeriestoUPLOADSeries.xlsx
+++ b/chapterElevenTimeSeriestoUPLOADSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cursos\appstosell\Packtbook_ExcelML\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3718275-8170-44BB-B671-DFFB5AC37BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD80DBE6-3F07-4561-9AD2-F0BAE4B75928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,7 +888,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -968,12 +968,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1018,6 +1089,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23267,6 +23347,189 @@
         <a:xfrm>
           <a:off x="14112240" y="14721840"/>
           <a:ext cx="327660" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A4B8DA-5BB9-4E99-BDDF-2CEC568047FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14074140" y="22997160"/>
+          <a:ext cx="838200" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1668780</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3757EE-F2CB-4F30-AD3E-33BB264DD0D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15941040" y="23020020"/>
+          <a:ext cx="1600200" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AE20DC-728E-4509-85C7-430D7C73C05B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10797540" y="22829520"/>
+          <a:ext cx="2179320" cy="830580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -53777,8 +54040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9162045-EB23-4E7E-AEFE-5DB901B8B45C}">
   <dimension ref="A1:Y153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G79" workbookViewId="0">
-      <selection activeCell="P86" sqref="P86"/>
+    <sheetView tabSelected="1" topLeftCell="H101" workbookViewId="0">
+      <selection activeCell="S132" sqref="S132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -53793,8 +54056,9 @@
     <col min="17" max="17" width="10.44140625" customWidth="1"/>
     <col min="18" max="18" width="15.21875" customWidth="1"/>
     <col min="19" max="19" width="23.88671875" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" customWidth="1"/>
     <col min="21" max="21" width="11.5546875" customWidth="1"/>
-    <col min="22" max="22" width="18.88671875" customWidth="1"/>
+    <col min="22" max="22" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -57266,7 +57530,7 @@
         <v>188.32541493158902</v>
       </c>
     </row>
-    <row r="124" spans="4:22">
+    <row r="124" spans="4:22" ht="15" thickBot="1">
       <c r="D124">
         <v>360</v>
       </c>
@@ -57279,62 +57543,83 @@
         <v>8117.0058164782895</v>
       </c>
     </row>
-    <row r="125" spans="4:22">
+    <row r="125" spans="4:22" ht="15" thickBot="1">
       <c r="D125">
         <v>342</v>
       </c>
+      <c r="Q125" s="27"/>
+      <c r="R125" s="30"/>
+      <c r="S125" s="24"/>
     </row>
     <row r="126" spans="4:22">
       <c r="D126">
         <v>406</v>
       </c>
+      <c r="Q126" s="28"/>
+      <c r="R126" s="31"/>
+      <c r="S126" s="25"/>
+      <c r="T126" s="24"/>
+      <c r="V126" s="19"/>
     </row>
     <row r="127" spans="4:22">
       <c r="D127">
         <v>396</v>
       </c>
-    </row>
-    <row r="128" spans="4:22">
+      <c r="Q127" s="28"/>
+      <c r="R127" s="31"/>
+      <c r="S127" s="25"/>
+      <c r="T127" s="25"/>
+      <c r="V127" s="20"/>
+    </row>
+    <row r="128" spans="4:22" ht="15" thickBot="1">
       <c r="D128">
         <v>420</v>
       </c>
-    </row>
-    <row r="129" spans="4:17">
+      <c r="Q128" s="28"/>
+      <c r="R128" s="31"/>
+      <c r="S128" s="25"/>
+      <c r="T128" s="26"/>
+      <c r="V128" s="21"/>
+    </row>
+    <row r="129" spans="4:19" ht="15" thickBot="1">
       <c r="D129">
         <v>472</v>
       </c>
-    </row>
-    <row r="130" spans="4:17">
+      <c r="Q129" s="29"/>
+      <c r="R129" s="32"/>
+      <c r="S129" s="26"/>
+    </row>
+    <row r="130" spans="4:19">
       <c r="D130">
         <v>548</v>
       </c>
     </row>
-    <row r="131" spans="4:17">
+    <row r="131" spans="4:19">
       <c r="D131">
         <v>559</v>
       </c>
     </row>
-    <row r="132" spans="4:17">
+    <row r="132" spans="4:19">
       <c r="D132">
         <v>463</v>
       </c>
     </row>
-    <row r="133" spans="4:17">
+    <row r="133" spans="4:19">
       <c r="D133">
         <v>407</v>
       </c>
     </row>
-    <row r="134" spans="4:17">
+    <row r="134" spans="4:19">
       <c r="D134">
         <v>362</v>
       </c>
     </row>
-    <row r="135" spans="4:17">
+    <row r="135" spans="4:19">
       <c r="D135">
         <v>405</v>
       </c>
     </row>
-    <row r="136" spans="4:17">
+    <row r="136" spans="4:19">
       <c r="D136">
         <v>417</v>
       </c>
@@ -57342,12 +57627,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="4:17" ht="15" thickBot="1">
+    <row r="137" spans="4:19" ht="15" thickBot="1">
       <c r="D137">
         <v>391</v>
       </c>
     </row>
-    <row r="138" spans="4:17">
+    <row r="138" spans="4:19">
       <c r="D138">
         <v>419</v>
       </c>
@@ -57356,7 +57641,7 @@
       </c>
       <c r="Q138" s="5"/>
     </row>
-    <row r="139" spans="4:17">
+    <row r="139" spans="4:19">
       <c r="D139">
         <v>461</v>
       </c>
@@ -57367,7 +57652,7 @@
         <v>0.77361082135996628</v>
       </c>
     </row>
-    <row r="140" spans="4:17">
+    <row r="140" spans="4:19">
       <c r="D140">
         <v>472</v>
       </c>
@@ -57378,7 +57663,7 @@
         <v>0.5984737029252416</v>
       </c>
     </row>
-    <row r="141" spans="4:17">
+    <row r="141" spans="4:19">
       <c r="D141">
         <v>535</v>
       </c>
@@ -57389,7 +57674,7 @@
         <v>0.58790722142327423</v>
       </c>
     </row>
-    <row r="142" spans="4:17">
+    <row r="142" spans="4:19">
       <c r="D142">
         <v>622</v>
       </c>
@@ -57400,7 +57685,7 @@
         <v>16.538191387692212</v>
       </c>
     </row>
-    <row r="143" spans="4:17" ht="15" thickBot="1">
+    <row r="143" spans="4:19" ht="15" thickBot="1">
       <c r="D143">
         <v>606</v>
       </c>
@@ -57411,7 +57696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="4:17">
+    <row r="144" spans="4:19">
       <c r="D144">
         <v>508</v>
       </c>
@@ -57585,11 +57870,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="S80:S83"/>
     <mergeCell ref="U80:U83"/>
     <mergeCell ref="V80:V83"/>
     <mergeCell ref="T80:T83"/>
+    <mergeCell ref="T126:T128"/>
+    <mergeCell ref="V126:V128"/>
+    <mergeCell ref="Q125:S129"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O11" r:id="rId1" xr:uid="{D512F82F-A404-4F1C-A230-C7498B0DF9DC}"/>
